--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>6</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>143</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="O2">
         <v>13</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>334</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -952,10 +952,10 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>3</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>129</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1005,28 +1005,28 @@
         <v>30</v>
       </c>
       <c r="F3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>314</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L2">
         <v>107</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>143</v>
       </c>
       <c r="N2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>441</v>
@@ -721,37 +721,37 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="M3">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>412</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
       <c r="F2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="M3">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="N3">
         <v>8</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -1215,25 +1215,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -1245,16 +1245,16 @@
         <v>174</v>
       </c>
       <c r="L2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1365,10 +1365,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1431,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="M2">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="N2">
         <v>31</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2">
-        <v>441</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>28</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>163</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -952,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -970,10 +970,10 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="M2">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="N2">
         <v>18</v>
@@ -985,7 +985,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>82</v>
+      </c>
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="F3">
-        <v>78</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>25</v>
       </c>
-      <c r="H3">
-        <v>23</v>
-      </c>
       <c r="I3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>152</v>
       </c>
       <c r="N3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L2">
         <v>108</v>
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1445,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,19 +161,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56 59 59 43</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9 25 20 0</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21 22 15 24 0</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42 47 43 43</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0 6 10 0</t>
   </si>
   <si>
     <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0</t>
@@ -668,28 +668,28 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>7</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,10 +701,10 @@
         <v>171</v>
       </c>
       <c r="N2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P2">
         <v>14</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="M3">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N3">
         <v>19</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>485</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>152</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>397</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="M3">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="N3">
         <v>11</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>439</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,13 +1362,13 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,13 +1417,13 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56 59 59 43</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9 25 20 0</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21 22 15 24 0</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42 47 43 43</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0 6 10 0</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56 59 59 43 59</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9 25 20 0 18</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21 22 15 24 0 22</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42 47 43 43 36 42 61</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0 6 10 0 0 0 18</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -689,28 +689,28 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="N2">
         <v>32</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>512</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>191</v>
       </c>
       <c r="N3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="M2">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="N2">
         <v>22</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>189</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N2">
         <v>65</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Ravens/2021 Team Data.xlsx
+++ b/Base/Teams/Ravens/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2</t>
-  </si>
-  <si>
-    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5</t>
-  </si>
-  <si>
-    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4</t>
-  </si>
-  <si>
-    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7</t>
+    <t>3 18 2 2 3 -3 0 4 1 16 3 2 4 11 6 -1 15 11 4 2 2 5 5 8 1 0 28 2 4 2 3 2 6 5 12 31 9 7 1 9 9 8 0 0 21 3 4 5 20 14 -4 3 4 -2 20 6 2 8 5 9 2 1 11 5 9 -1 3 1 1 2 2 -2 2 5 0 31 6 2 0 4 8 8 1 9 0 5 7 8 5 12 3 -1 7 5 2 1 1 3 4 5 7 11 2 1 -1 6 -2 3 4 3 5 4 0 2 3 5 3 5 5 4 5 0 1 3 3 2 -2 13 4 3 -1 9 2 4 0 12 5 -1 3 6 4 -3 6 6 6 2 8 6 16 6 1 11 14 3 3 22 2 3 5 5 7 3 6 1 5 4 1 7 2 2 0 -3 5 7 3 0 9 -1 9 3 2 12 2 10 -5 4 -2 -1 12 3 10 3 7 1 16 2 1 7 7 2 10 7 2 5 6 5 8 5 6 4 4 2 6 3 4 9 3 5 6 7 11 6 12 0 1 7 1 4 9 4 6 1 3 8 7 8 5 10 1 6 5 4 2 3 19 5 12 1 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 5 10 1 -1 -3 4 1 4 2 5 4 2 19 0 3 8 2 3 4 5 2 5 4 6 5 0 2 1 6 -1 2 2 3 1 2 4 1 1 6 1 0 3 4 0 13 9 5 4 2 0 5 1 0 4 2 4 1 4 3 2 8 13 1 3 11 8 3 1 4 6 5 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 5 1 4 5 4 3 -4 -1 7 2 18 4 8 5 0 11 13 21 5 3 2 1 1 2 4 1 7 2 -2 5 3 16 4 6 8 12 6 13 4 -1 6 10 7 3 15 2 8 8 2 6 1 0 7 -2 3 -5 3 4 2 2 -7 1 2 1 2 -3 5 3 7 1 1 1 9 5 17 11 3 -1 12 2 4 3 3 32 6 6 4 6 3 2 3 -2 2 2 0 4 22 -5 2 3 3 4 2 3 18 8 -1 8 10 46 1 22 27 3 6 0 4 2 6 1 21 0 11 4 4 3 1</t>
+  </si>
+  <si>
+    <t>2 8 0 21 6 6 29 29 10 13 4 10 6 4 13 6 49 9 10 11 17 -4 7 20 8 9 7 11 4 4 12 8 27 20 42 19 9 10 6 5 16 11 6 21 37 19 29 3 9 41 7 24 5 18 20 6 12 24 12 9 49 32 7 13 14 4 8 13 7 8 17 4 7 14 32 4 5 5 17 15 28 7 28 2 6 11 12 8 8 7 17 3 19 7 43 27 18 7 6 15 5 17 10 9 20 8 4 14 4 11 7 7 5 7 4 4 8 16 8 9 21 1 10 6 4 11 9 8 20 13 6 1 24 6 23 19 20 18 7 1 35 39 25 3 13 13 -1 10 12 7 11 13 13 15 7 -1 9 4 5 12 22 3 3 8 8 18 11 5 22 6 8 7 7 20 20 7 13 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 11 1 16 5 9 8 -2 11 11 2 3 12 9 15 2 9 8 -2 3 9 4 12 7 21 6 29 8 2 7 5 6 9 8 13 8 8 4 7 39 13 11 5 -1 0 10 3 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 11 2 -1 5 3 5 4 9 4 20 10 32 4 8 -3 20 36 12 3 11 2 6 5 6 4 8 14 3 43 5 5 4 22 8 4 8 7 9 2 7 1 9 12 5 5 3 5 5 5 3 3 6 12 3 11 17 5 15 6 4 9 -1 16 12 10 -1 18 28 11 11 4 7 12 17 25 18 14 4 6 7 14 5 15 13 5 1 14 9 18 5 33 2 14 15 4 15 7 11 4 5 3 19 13 11 10 6 0 28 7 1 5 1 6 11 8 12</t>
+  </si>
+  <si>
+    <t>31 -1 2 8 0 13 0 0 0 2 2 2 4 1 15 3 -2 6 0 1 9 1 7 -1 1 3 9 4 2 7 6 15 1 3 -5 4 -2 -2 11 1 4 14 2 6 4 14 4 0 9 -2 2 1 2 3 12 4 0 4 0 1 1 -1 0 1 -4 7 8 1 4 14 3 2 31 3 3 3 3 -3 6 10 -1 12 3 11 4 4 3 13 2 2 -1 2 2 19 13 0 4 4 8 22 -1 7 2 1 -1 3 -4 1 -1 4 2 5 2 10 -2 2 1 3 -2 2 9 0 -1 -1 9 0 0 5 1 0 0 10 7 21 3 46 3 -3 -5 2 2 1 11 15 -3 4 66 1 3 3 0 0 1 2 -1 1 0 -1 0 -8 1 24 1 3 -1 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 8 9 2 11 5 -6 3 10 7 5 6 4 5 5 -1 6 11 2 0 -3 4 1 2 7 2 2 -1 3 4 -1 5 1 9 3 -3 5 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 1 3 3 2 5 1 6 15 1 2 13 -2 5 6 3 4 11 8 11 1 2 7 1 0 -2 1 4 2 2 4 2 3 7 9 8 -1 4 11 5 4 9 3 5 5 6 0 1 0 5 8 -2 19 3 1 1 9 1 1 1 3 12 2 2 2 8 2 2 2 6 2 4 1 1 2 3 14 1 7 7 -2 11 4 7 1 8 1 -4 1 1 5 9 -1 2 2 -6 1 1 2 0 7 14 1 -1 3 17 -1 0 2 4 3 0 2 0 15</t>
+  </si>
+  <si>
+    <t>9 13 6 5 6 12 9 24 8 15 13 7 4 12 16 2 3 4 21 4 5 16 9 7 9 37 10 10 20 18 11 27 32 31 6 7 19 10 33 17 11 14 10 4 14 20 14 5 11 40 5 46 3 8 3 23 13 7 11 3 4 5 8 1 15 10 5 12 11 14 19 9 2 -3 11 9 6 24 19 22 11 19 3 3 12 14 3 11 11 8 3 5 6 13 -3 9 9 32 9 76 11 15 6 8 15 11 7 -2 5 9 16 -1 31 42 21 24 18 4 4 29 23 2 15 11 11 8 3 18 7 5 8 26 1 16 1 5 10 21 15 -1 5 4 5 10 6 11 23 6 5 9 55 7 4 6 13 26 7 17 21 32 7 82 25 2 11 11 27 6 50 5 3 7 7 20 4 18 5 9 5 6 27 1 2 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 6 29 22 22 23 60 10 2 3 12 9 4 23 11 9 36 10 0 -1 41 11 7 4 16 6 38 8 20 16 8 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 -1 8 3 9 4 34 5 5 9 7 6 27 9 1 12 5 7 13 17 3 3 4 17 6 11 31 7 22 10 3 13 3 24 6 1 16 9 7 6 9 25 14 11 23 -6 10 18 20 3 11 16 5 17 3 68 20 17 9 11 15 3 52 1 19 3 18 9 3 2 5 14 13 0 12 4 22 3 10 20 4 52 10 18 7 19 6 4 9 22 11 17 11 18 2 35 12 9 2 8 3 21 15 24 4 15 7 4 11 10 7 0 7 25 2 5 16 8 2 10 10 7 8 -2 8 20 11 3 6 10 6 3 11 14 1 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56 59 59 43 59</t>
-  </si>
-  <si>
-    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9 25 20 0 18</t>
-  </si>
-  <si>
-    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21 22 15 24 0 22</t>
-  </si>
-  <si>
-    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42 47 43 43 36 42 61</t>
-  </si>
-  <si>
-    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0 6 10 0 0 0 18</t>
-  </si>
-  <si>
-    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0 0 0</t>
+    <t>63 65 57 65 55 48 67 58 63 64 65 61 63 60 67 59 67 63 61 39 65 61 64 58 63 63 47 40 65 63 65 53 56 59 59 43 59 59 52 58</t>
+  </si>
+  <si>
+    <t>13 20 8 33 3 9 25 17 19 26 20 16 18 16 36 10 23 98 17 0 15 14 19 13 21 0 13 6 35 21 20 0 9 25 20 0 18 32 13 21</t>
+  </si>
+  <si>
+    <t>23 23 21 23 27 23 47 21 24 24 21 25 25 26 35 0 19 12 23 24 26 34 21 22 15 24 0 22 19 23 27 26 18</t>
+  </si>
+  <si>
+    <t>47 42 49 41 49 46 54 48 35 34 52 55 46 49 57 42 49 53 47 49 53 33 48 49 40 31 50 46 39 35 51 45 37 53 43 39 24 41 39 37 42 44 35 57 45 53 33 50 55 45 46 57 60 44 44 42 47 43 43 36 42 61 44 40 36 23 50 39 36</t>
+  </si>
+  <si>
+    <t>3 0 0 7 0 13 11 0 0 0 0 5 8 0 9 0 6 0 13 11 0 0 13 7 0 0 0 0 0 0 0 6 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 -3 14 5 6 8 8 1 6 0 6 10 0 0 0 18 7 0 0 0 23 0 0</t>
+  </si>
+  <si>
+    <t>0 22 15 30 0 0 16 0 0 0 0 13 29 0 12 0 0 10 0 42 0 0 0 0 0 7 0 14 13 17 0 0 16 21 0 0 0 0 14 0 0 0 0 0 9 0 0 0 7 12 0 0 0 13 22 0 0 1 0 0 0 12 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -677,40 +677,40 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="M2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="N2">
         <v>32</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q2">
-        <v>581</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G3">
         <v>31</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>191</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -952,10 +952,10 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,28 +964,28 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>274</v>
+        <v>318</v>
       </c>
       <c r="M2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="N2">
         <v>22</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>453</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
         <v>34</v>
       </c>
-      <c r="H3">
-        <v>31</v>
-      </c>
       <c r="I3">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="J3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>189</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <v>65</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -1371,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
